--- a/TESTS/grille_test_remplie.xlsx
+++ b/TESTS/grille_test_remplie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/1737645/Documents/GitHub/portfolio/TESTS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983F30B4-A49C-4DF7-AA2A-BE15AE69DFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94104D6F-8A6B-554A-BDE6-8C0B37E676F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2C857B5E-D862-4F5D-BE9A-DAA02382F8AD}"/>
+    <workbookView xWindow="14180" yWindow="3340" windowWidth="29040" windowHeight="15720" xr2:uid="{2C857B5E-D862-4F5D-BE9A-DAA02382F8AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -141,9 +139,6 @@
     <t>✔</t>
   </si>
   <si>
-    <t>Très rapide, lighthouse heureux</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -166,6 +161,9 @@
   </si>
   <si>
     <t>Problèmes de couleurs sur les liens hypertextes dans Firefox, investiguation en cours. Le site reste 100% fonctionnel</t>
+  </si>
+  <si>
+    <t>Très rapide, lighthouse heureux***</t>
   </si>
 </sst>
 </file>
@@ -289,6 +287,55 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>21167</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>808567</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>127396</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8E76BB2-1318-7D4E-B8CC-43D47639F08B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2444750" y="6350000"/>
+          <a:ext cx="7772400" cy="3461146"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B60D1EB2-7F4F-4791-8CA6-67BC474F356B}" name="Tableau1" displayName="Tableau1" ref="A1:G20" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:G20" xr:uid="{B60D1EB2-7F4F-4791-8CA6-67BC474F356B}"/>
@@ -308,7 +355,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Bureau">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -346,7 +393,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Bureau">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -452,7 +499,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Bureau">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -604,22 +651,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F773EA-9BD3-4525-95A2-1CB954E51A09}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="91.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.83203125" customWidth="1"/>
+    <col min="2" max="2" width="91.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -642,7 +689,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -650,13 +697,13 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>34</v>
@@ -665,7 +712,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -674,19 +721,19 @@
         <v>26</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -698,16 +745,16 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="5" t="s">
         <v>7</v>
@@ -717,16 +764,16 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="5" t="s">
         <v>8</v>
@@ -736,16 +783,16 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="5" t="s">
         <v>9</v>
@@ -764,7 +811,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="s">
         <v>22</v>
@@ -785,7 +832,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -804,7 +851,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="5" t="s">
         <v>11</v>
@@ -823,7 +870,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="5" t="s">
         <v>12</v>
@@ -833,16 +880,16 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -863,7 +910,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="5" t="s">
         <v>15</v>
@@ -872,7 +919,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>34</v>
@@ -884,7 +931,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -905,7 +952,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -928,7 +975,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="5" t="s">
         <v>17</v>
@@ -937,7 +984,7 @@
         <v>26</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>34</v>
@@ -949,7 +996,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="5" t="s">
         <v>19</v>
@@ -959,16 +1006,16 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="5" t="s">
         <v>20</v>
@@ -989,7 +1036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
@@ -1000,7 +1047,7 @@
         <v>26</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>34</v>
@@ -1012,12 +1059,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1025,36 +1072,36 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1063,8 +1110,9 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>